--- a/7 - Recherche Entrées/1 - Subventions/2022-2023/AVP-SAO/DossierSubventionsUnipoly2223/Modele-Documents_comptables_Subvention-SAO-2023.xlsx
+++ b/7 - Recherche Entrées/1 - Subventions/2022-2023/AVP-SAO/DossierSubventionsUnipoly2223/Modele-Documents_comptables_Subvention-SAO-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\7 - Recherche Entrées\1 - Subventions\2022-2023\AVP-SAO\Dossier en cours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\7 - Recherche Entrées\1 - Subventions\2022-2023\AVP-SAO\DossierSubventionsUnipoly2223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{EF5196EA-4D64-4817-B95B-3C34E5C21D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B0CDD-E238-4574-8C6C-3DB528765EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,6 @@
     <definedName name="Z_BFDCD700_5607_11D7_98B8_0001020B4F98_.wvu.Rows" localSheetId="0">'Profits et Pertes'!#REF!,'Profits et Pertes'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -925,16 +924,40 @@
   </si>
   <si>
     <r>
-      <t>Bilan au</t>
+      <t>Ecublens
+Estimation Bilan au</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 31 août </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bilan a</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 31 août </t>
+      <t xml:space="preserve">u 31 août </t>
     </r>
     <r>
       <rPr>
@@ -945,30 +968,6 @@
       </rPr>
       <t xml:space="preserve">
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ecublens
-Estimation Bilan au </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">1 janvier </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2023</t>
     </r>
   </si>
 </sst>
@@ -983,7 +982,7 @@
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_)\ _C_H_F_ ;_ * \(#,##0.00\)\ _C_H_F_ ;_ * &quot;-&quot;??_)\ _C_H_F_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="0.0\ "/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,14 +1132,28 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1525,10 +1538,13 @@
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,16 +1557,13 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1803,7 +1816,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="113"/>
@@ -1833,7 +1846,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="113"/>
@@ -1863,7 +1876,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="115"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="113"/>
       <c r="C3" s="113"/>
       <c r="D3" s="113"/>
@@ -1891,7 +1904,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="117" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="113"/>
@@ -1921,7 +1934,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="118" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="113"/>
@@ -2035,7 +2048,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="118"/>
+      <c r="A9" s="112"/>
       <c r="B9" s="113"/>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
@@ -30792,8 +30805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30808,7 +30821,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="113"/>
@@ -30838,8 +30851,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="119" t="s">
-        <v>123</v>
+      <c r="A2" s="120" t="s">
+        <v>122</v>
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="113"/>
@@ -30868,7 +30881,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="119" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="113"/>
@@ -30899,7 +30912,7 @@
     </row>
     <row r="4" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" s="113"/>
       <c r="C4" s="113"/>
@@ -30928,7 +30941,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="114"/>
+      <c r="A5" s="115"/>
       <c r="B5" s="113"/>
       <c r="C5" s="113"/>
       <c r="D5" s="113"/>
@@ -59194,7 +59207,7 @@
     <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="49" orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/7 - Recherche Entrées/1 - Subventions/2022-2023/AVP-SAO/DossierSubventionsUnipoly2223/Modele-Documents_comptables_Subvention-SAO-2023.xlsx
+++ b/7 - Recherche Entrées/1 - Subventions/2022-2023/AVP-SAO/DossierSubventionsUnipoly2223/Modele-Documents_comptables_Subvention-SAO-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\7 - Recherche Entrées\1 - Subventions\2022-2023\AVP-SAO\DossierSubventionsUnipoly2223\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192B0CDD-E238-4574-8C6C-3DB528765EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A354E-B457-40B0-9DF4-C17CB81D4700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>Association EPFL</t>
   </si>
@@ -870,9 +870,6 @@
   </si>
   <si>
     <t>Fonds étrangers</t>
-  </si>
-  <si>
-    <t>Bourse UP Fashio Lab</t>
   </si>
   <si>
     <t>Bourse LTL</t>
@@ -1557,11 +1554,11 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4092,7 +4089,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65" s="27">
         <v>2000</v>
@@ -30805,8 +30802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30851,8 +30848,8 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="120" t="s">
-        <v>122</v>
+      <c r="A2" s="119" t="s">
+        <v>121</v>
       </c>
       <c r="B2" s="113"/>
       <c r="C2" s="113"/>
@@ -30881,7 +30878,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="120" t="s">
         <v>83</v>
       </c>
       <c r="B3" s="113"/>
@@ -30912,7 +30909,7 @@
     </row>
     <row r="4" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" s="113"/>
       <c r="C4" s="113"/>
@@ -32028,7 +32025,7 @@
     </row>
     <row r="39" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="89" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B39" s="91">
         <v>3500</v>
@@ -32062,7 +32059,7 @@
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="91">
         <v>6000</v>
@@ -32096,7 +32093,7 @@
     </row>
     <row r="41" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="91"/>
       <c r="C41" s="90"/>
@@ -32156,7 +32153,7 @@
     </row>
     <row r="43" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="61">
         <f>SUM(B44:B45)</f>
@@ -32192,7 +32189,7 @@
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="58">
         <f>+D44+D45</f>
@@ -32227,7 +32224,7 @@
     </row>
     <row r="45" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="91">
         <f>'Profits et Pertes'!C96</f>
@@ -32290,7 +32287,7 @@
     </row>
     <row r="47" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="55">
         <f>B43+B37</f>
@@ -32383,7 +32380,7 @@
     <row r="50" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="100"/>
       <c r="B50" s="101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="102"/>
       <c r="D50" s="101"/>
@@ -32441,11 +32438,11 @@
     <row r="52" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="100"/>
       <c r="B52" s="105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="103"/>
       <c r="D52" s="105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E52" s="86"/>
       <c r="F52" s="1"/>
@@ -32532,7 +32529,7 @@
     </row>
     <row r="55" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B55" s="91">
         <v>0</v>
@@ -32566,7 +32563,7 @@
     </row>
     <row r="56" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" s="91">
         <v>0</v>
@@ -32600,7 +32597,7 @@
     </row>
     <row r="57" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" s="91">
         <v>0</v>
@@ -32634,7 +32631,7 @@
     </row>
     <row r="58" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58" s="91">
         <v>0</v>
@@ -32730,7 +32727,7 @@
     </row>
     <row r="61" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="106">
         <f>SUM(B55:B60)</f>
@@ -32794,7 +32791,7 @@
     </row>
     <row r="63" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="100"/>
       <c r="C63" s="103"/>
